--- a/PlaneadorDocente.xlsx
+++ b/PlaneadorDocente.xlsx
@@ -11,39 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Planeador Docente</t>
   </si>
   <si>
-    <t>Nombre del profesor</t>
+    <t>Nombre del Profesor</t>
   </si>
   <si>
     <t>Samuel Omar Boada Barrera</t>
   </si>
   <si>
-    <t>Área de formación</t>
+    <t>Área de Formación</t>
   </si>
   <si>
     <t>Ciencias Básicas</t>
   </si>
   <si>
-    <t>Código curso</t>
+    <t>Código del Curso</t>
   </si>
   <si>
     <t>1155707</t>
   </si>
   <si>
-    <t>Nombre del curso</t>
+    <t>Nombre del Curso</t>
   </si>
   <si>
     <t>ETICA PROFESIONAL</t>
   </si>
   <si>
-    <t>Tipo de curso</t>
-  </si>
-  <si>
-    <t>Número de créditos</t>
+    <t>Tipo de Curso</t>
+  </si>
+  <si>
+    <t>Obligatoria</t>
+  </si>
+  <si>
+    <t>Número de Créditos</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Resultado de Aprendizaje</t>
@@ -77,6 +83,83 @@
   </si>
   <si>
     <t>Subtemas</t>
+  </si>
+  <si>
+    <t>jasdkalsdjkasdhglajsdkjasldka sdjahbskfhljahklsda</t>
+  </si>
+  <si>
+    <t>construir textos orales y escritos sobre  temas de redes de computadores y comunicaciones teniendo en cuenta los aspectos formales, coherencia y corrección</t>
+  </si>
+  <si>
+    <t>maneja excel para subir datos</t>
+  </si>
+  <si>
+    <t>proyecto de curso</t>
+  </si>
+  <si>
+    <t>Estrategia X</t>
+  </si>
+  <si>
+    <t>Semana siguiente al previo</t>
+  </si>
+  <si>
+    <t>Semana 1, Semana 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* MODULOS DE SOPORTE
+* ACTUACIONES IMPREVISTAS
+* MODULOS ACTIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- concepto de protocolos de comunicación
+- modelo de referencia osi/iso
+- elementos básicos de un sistema de telecomunicación
+- clases de redes por área
+- clases de redes por topología
+- recomendación ieee 802.n
+- redes lan de alta velocidad</t>
+  </si>
+  <si>
+    <t>taller</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>examen escrito</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>portafolio</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>construye modelos basados en tics</t>
+  </si>
+  <si>
+    <t>estudio de caso</t>
+  </si>
+  <si>
+    <t>mapa conceptual</t>
+  </si>
+  <si>
+    <t>adaptar el uso de las telecomunicaciones aplicadas en el ámbito de  las empresas o la sociedad sabiendo escoger entre diferentes alternativas tecnológicas la más apropiada</t>
+  </si>
+  <si>
+    <t>hace videos pa yutu</t>
+  </si>
+  <si>
+    <t>diario reflexivo</t>
+  </si>
+  <si>
+    <t>Realizar clase magistral</t>
+  </si>
+  <si>
+    <t>Semana 1, Semana 2, Semana 3</t>
   </si>
 </sst>
 </file>
@@ -469,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L15"/>
+  <dimension ref="A3:L37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="12" width="40" customWidth="1"/>
@@ -525,85 +608,547 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="33">
     <mergeCell ref="B3:L5"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="H16:H26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="J16:J26"/>
+    <mergeCell ref="K16:K26"/>
+    <mergeCell ref="L16:L26"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="H27:H37"/>
+    <mergeCell ref="I27:I37"/>
+    <mergeCell ref="J27:J37"/>
+    <mergeCell ref="K27:K37"/>
+    <mergeCell ref="L27:L37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="G34:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/PlaneadorDocente.xlsx
+++ b/PlaneadorDocente.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Planeador Docente</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Área de Formación</t>
   </si>
   <si>
-    <t>Ciencias Básicas</t>
+    <t>CIENCIAS BÁSICAS</t>
   </si>
   <si>
     <t>Código del Curso</t>
@@ -97,47 +97,30 @@
     <t>proyecto de curso</t>
   </si>
   <si>
-    <t>Estrategia X</t>
-  </si>
-  <si>
-    <t>Semana siguiente al previo</t>
-  </si>
-  <si>
-    <t>Semana 1, Semana 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* MODULOS DE SOPORTE
-* ACTUACIONES IMPREVISTAS
-* MODULOS ACTIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- concepto de protocolos de comunicación
-- modelo de referencia osi/iso
-- elementos básicos de un sistema de telecomunicación
-- clases de redes por área
-- clases de redes por topología
-- recomendación ieee 802.n
-- redes lan de alta velocidad</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>se realiza clase magistral</t>
+  </si>
+  <si>
+    <t>semana siguiente al previo</t>
+  </si>
+  <si>
+    <t>semana 1</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>taller</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>examen escrito</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>portafolio</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>construye modelos basados en tics</t>
   </si>
   <si>
@@ -145,21 +128,6 @@
   </si>
   <si>
     <t>mapa conceptual</t>
-  </si>
-  <si>
-    <t>adaptar el uso de las telecomunicaciones aplicadas en el ámbito de  las empresas o la sociedad sabiendo escoger entre diferentes alternativas tecnológicas la más apropiada</t>
-  </si>
-  <si>
-    <t>hace videos pa yutu</t>
-  </si>
-  <si>
-    <t>diario reflexivo</t>
-  </si>
-  <si>
-    <t>Realizar clase magistral</t>
-  </si>
-  <si>
-    <t>Semana 1, Semana 2, Semana 3</t>
   </si>
 </sst>
 </file>
@@ -552,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L37"/>
+  <dimension ref="A3:L29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="12" width="40" customWidth="1"/>
@@ -702,22 +670,22 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>32</v>
@@ -730,9 +698,6 @@
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -745,10 +710,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -762,10 +724,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -778,13 +737,13 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -800,9 +759,6 @@
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -815,10 +771,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -828,37 +781,46 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -872,10 +834,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -889,10 +848,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -902,49 +858,30 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -958,10 +895,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -970,152 +904,8 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="27">
     <mergeCell ref="B3:L5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
@@ -1123,32 +913,26 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="B16:B22"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="J16:J26"/>
-    <mergeCell ref="K16:K26"/>
-    <mergeCell ref="L16:L26"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="K16:K22"/>
+    <mergeCell ref="L16:L22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="H27:H37"/>
-    <mergeCell ref="I27:I37"/>
-    <mergeCell ref="J27:J37"/>
-    <mergeCell ref="K27:K37"/>
-    <mergeCell ref="L27:L37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="K23:K29"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
